--- a/Code/Results/Cases/Case_0_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_74/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2590492922000465</v>
+        <v>0.3610346189587261</v>
       </c>
       <c r="D2">
-        <v>0.03102715733481176</v>
+        <v>0.07094241660363743</v>
       </c>
       <c r="E2">
-        <v>0.074811938476401</v>
+        <v>0.1343833452072793</v>
       </c>
       <c r="F2">
-        <v>1.221005025176055</v>
+        <v>1.605138123829505</v>
       </c>
       <c r="G2">
-        <v>1.194576630786372</v>
+        <v>1.523761136644993</v>
       </c>
       <c r="H2">
-        <v>0.7390905294292622</v>
+        <v>1.358990396546005</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.515525513807916</v>
+        <v>1.607784583014507</v>
       </c>
       <c r="L2">
-        <v>0.04492394941139821</v>
+        <v>0.1047187801413045</v>
       </c>
       <c r="M2">
-        <v>0.8128143635515599</v>
+        <v>0.5247690533370317</v>
       </c>
       <c r="N2">
-        <v>0.7880688190568321</v>
+        <v>1.660301691173793</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2365400448313864</v>
+        <v>0.3576795385991147</v>
       </c>
       <c r="D3">
-        <v>0.03241676839890673</v>
+        <v>0.07144010520130806</v>
       </c>
       <c r="E3">
-        <v>0.07019478267056911</v>
+        <v>0.1341124737362378</v>
       </c>
       <c r="F3">
-        <v>1.124752434372695</v>
+        <v>1.594270704478532</v>
       </c>
       <c r="G3">
-        <v>1.100786050511928</v>
+        <v>1.513607927890476</v>
       </c>
       <c r="H3">
-        <v>0.704598023555846</v>
+        <v>1.360833193443241</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>3.046306305970347</v>
+        <v>1.482711372977462</v>
       </c>
       <c r="L3">
-        <v>0.0438340208533603</v>
+        <v>0.1051046124842223</v>
       </c>
       <c r="M3">
-        <v>0.7090640002163511</v>
+        <v>0.4992592473328585</v>
       </c>
       <c r="N3">
-        <v>0.8419850099700454</v>
+        <v>1.681417150863711</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2231260975573832</v>
+        <v>0.3558043240709736</v>
       </c>
       <c r="D4">
-        <v>0.03329535711476517</v>
+        <v>0.07175979419485756</v>
       </c>
       <c r="E4">
-        <v>0.06748526287919177</v>
+        <v>0.1340088598334006</v>
       </c>
       <c r="F4">
-        <v>1.068444013408993</v>
+        <v>1.588648815512911</v>
       </c>
       <c r="G4">
-        <v>1.046175764847064</v>
+        <v>1.50843570423875</v>
       </c>
       <c r="H4">
-        <v>0.685060801776757</v>
+        <v>1.362697807530949</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.760903491684104</v>
+        <v>1.406528086871333</v>
       </c>
       <c r="L4">
-        <v>0.04323991935334703</v>
+        <v>0.1053833293884558</v>
       </c>
       <c r="M4">
-        <v>0.6461716575605863</v>
+        <v>0.4838525054563192</v>
       </c>
       <c r="N4">
-        <v>0.8764825514463075</v>
+        <v>1.695020919172014</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2177538867919822</v>
+        <v>0.3550866115751461</v>
       </c>
       <c r="D5">
-        <v>0.03365960116297551</v>
+        <v>0.07189362167367186</v>
       </c>
       <c r="E5">
-        <v>0.06641047872160755</v>
+        <v>0.1339823985310531</v>
       </c>
       <c r="F5">
-        <v>1.046143395658731</v>
+        <v>1.586621357945532</v>
       </c>
       <c r="G5">
-        <v>1.024609284294371</v>
+        <v>1.506594102663144</v>
       </c>
       <c r="H5">
-        <v>0.677483725107848</v>
+        <v>1.363641734103169</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.645178115969259</v>
+        <v>1.375636826409362</v>
       </c>
       <c r="L5">
-        <v>0.04301567521517669</v>
+        <v>0.1055074226826029</v>
       </c>
       <c r="M5">
-        <v>0.6207214623984072</v>
+        <v>0.4776385979213629</v>
       </c>
       <c r="N5">
-        <v>0.8908793451176678</v>
+        <v>1.700725075947268</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2168672882090448</v>
+        <v>0.3549702409996769</v>
       </c>
       <c r="D6">
-        <v>0.03372045442080918</v>
+        <v>0.07191605827042657</v>
       </c>
       <c r="E6">
-        <v>0.06623372464658317</v>
+        <v>0.1339789565204015</v>
       </c>
       <c r="F6">
-        <v>1.042477810902511</v>
+        <v>1.586300594700873</v>
       </c>
       <c r="G6">
-        <v>1.021068015106835</v>
+        <v>1.506304353060386</v>
       </c>
       <c r="H6">
-        <v>0.6762479927069194</v>
+        <v>1.36380958262572</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.625994158300585</v>
+        <v>1.370516664082402</v>
       </c>
       <c r="L6">
-        <v>0.04297948935337814</v>
+        <v>0.1055286632793049</v>
       </c>
       <c r="M6">
-        <v>0.6165055898119789</v>
+        <v>0.4766106768344116</v>
       </c>
       <c r="N6">
-        <v>0.8932900631158045</v>
+        <v>1.70168193792539</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2230532755543635</v>
+        <v>0.3557944566910862</v>
       </c>
       <c r="D7">
-        <v>0.03330024448606572</v>
+        <v>0.07176158465435023</v>
       </c>
       <c r="E7">
-        <v>0.06747065182037559</v>
+        <v>0.1340084391524456</v>
       </c>
       <c r="F7">
-        <v>1.068140717355178</v>
+        <v>1.588620406527255</v>
       </c>
       <c r="G7">
-        <v>1.045882205045359</v>
+        <v>1.508409791434971</v>
       </c>
       <c r="H7">
-        <v>0.6849570936932707</v>
+        <v>1.362709792683688</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.759340563326731</v>
+        <v>1.406110852637426</v>
       </c>
       <c r="L7">
-        <v>0.04323682412756114</v>
+        <v>0.1053849603846793</v>
       </c>
       <c r="M7">
-        <v>0.6458277344382779</v>
+        <v>0.4837684415133552</v>
       </c>
       <c r="N7">
-        <v>0.8766753545189827</v>
+        <v>1.69509719768723</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2511985326227091</v>
+        <v>0.3598394129259361</v>
       </c>
       <c r="D8">
-        <v>0.03150092419496353</v>
+        <v>0.07111109457699882</v>
       </c>
       <c r="E8">
-        <v>0.07319255138323655</v>
+        <v>0.1342769314567462</v>
       </c>
       <c r="F8">
-        <v>1.187202668557987</v>
+        <v>1.601172516338607</v>
       </c>
       <c r="G8">
-        <v>1.161581502690524</v>
+        <v>1.520039365402965</v>
       </c>
       <c r="H8">
-        <v>0.7268392227670688</v>
+        <v>1.359473465177757</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>3.35311559636051</v>
+        <v>1.564532304567024</v>
       </c>
       <c r="L8">
-        <v>0.04453190631456039</v>
+        <v>0.1048431360144022</v>
       </c>
       <c r="M8">
-        <v>0.776857343470013</v>
+        <v>0.5159200469717362</v>
       </c>
       <c r="N8">
-        <v>0.8063628947907855</v>
+        <v>1.667449650625279</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.3100241816033815</v>
+        <v>0.369239914524286</v>
       </c>
       <c r="D9">
-        <v>0.02818248728386941</v>
+        <v>0.06994720157234369</v>
       </c>
       <c r="E9">
-        <v>0.08551543701357289</v>
+        <v>0.1353013821946902</v>
       </c>
       <c r="F9">
-        <v>1.445597575187023</v>
+        <v>1.634160285214293</v>
       </c>
       <c r="G9">
-        <v>1.415095903383445</v>
+        <v>1.55131465235857</v>
       </c>
       <c r="H9">
-        <v>0.823381199968594</v>
+        <v>1.358957890448437</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.543907328796422</v>
+        <v>1.880066822838785</v>
       </c>
       <c r="L9">
-        <v>0.04771832371492124</v>
+        <v>0.1041124944783505</v>
       </c>
       <c r="M9">
-        <v>1.041475423045334</v>
+        <v>0.5810077980499173</v>
       </c>
       <c r="N9">
-        <v>0.6800901450030032</v>
+        <v>1.618305956673174</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3560789733257366</v>
+        <v>0.3770456026659019</v>
       </c>
       <c r="D10">
-        <v>0.0258871185868621</v>
+        <v>0.06915989389795563</v>
       </c>
       <c r="E10">
-        <v>0.09540495674387373</v>
+        <v>0.1363584900059536</v>
       </c>
       <c r="F10">
-        <v>1.654869016051862</v>
+        <v>1.663556012369725</v>
       </c>
       <c r="G10">
-        <v>1.622187036350567</v>
+        <v>1.579522250880046</v>
       </c>
       <c r="H10">
-        <v>0.9052229706079515</v>
+        <v>1.362155191948972</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>5.442567896133596</v>
+        <v>2.114903952458235</v>
       </c>
       <c r="L10">
-        <v>0.05053129781195764</v>
+        <v>0.1037782441167252</v>
       </c>
       <c r="M10">
-        <v>1.242471418366193</v>
+        <v>0.6300823170338674</v>
       </c>
       <c r="N10">
-        <v>0.5952442906289681</v>
+        <v>1.585297910200564</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3778014108519585</v>
+        <v>0.3807928222815065</v>
       </c>
       <c r="D11">
-        <v>0.02487801320136995</v>
+        <v>0.06881639138998885</v>
       </c>
       <c r="E11">
-        <v>0.100126451449686</v>
+        <v>0.1369057211795806</v>
       </c>
       <c r="F11">
-        <v>1.75535250965919</v>
+        <v>1.678061586357501</v>
       </c>
       <c r="G11">
-        <v>1.722075552210384</v>
+        <v>1.593504906866968</v>
       </c>
       <c r="H11">
-        <v>0.9453579936801191</v>
+        <v>1.364391100772281</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.858488583671544</v>
+        <v>2.222403409649814</v>
       </c>
       <c r="L11">
-        <v>0.05193289282376412</v>
+        <v>0.1036702289689337</v>
       </c>
       <c r="M11">
-        <v>1.3358168458618</v>
+        <v>0.6526829712687174</v>
       </c>
       <c r="N11">
-        <v>0.558580392113968</v>
+        <v>1.570955541370003</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.3861526122147438</v>
+        <v>0.382240090471953</v>
       </c>
       <c r="D12">
-        <v>0.02450136543088099</v>
+        <v>0.06868841904548972</v>
       </c>
       <c r="E12">
-        <v>0.1019502148538471</v>
+        <v>0.137122497366132</v>
       </c>
       <c r="F12">
-        <v>1.794262526807557</v>
+        <v>1.683718350014374</v>
       </c>
       <c r="G12">
-        <v>1.760826113739938</v>
+        <v>1.598966381217139</v>
       </c>
       <c r="H12">
-        <v>0.9610239553416022</v>
+        <v>1.365350518185693</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>6.017190300666073</v>
+        <v>2.26320752800558</v>
       </c>
       <c r="L12">
-        <v>0.05248300014865848</v>
+        <v>0.1036356632322821</v>
       </c>
       <c r="M12">
-        <v>1.371483788090558</v>
+        <v>0.6612811236107632</v>
       </c>
       <c r="N12">
-        <v>0.5449950459260053</v>
+        <v>1.565621413876443</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3843482090419172</v>
+        <v>0.3819271370828972</v>
       </c>
       <c r="D13">
-        <v>0.02458223184454233</v>
+        <v>0.06871588660055039</v>
       </c>
       <c r="E13">
-        <v>0.1015557758057781</v>
+        <v>0.1370753857458666</v>
       </c>
       <c r="F13">
-        <v>1.785842653254448</v>
+        <v>1.68249276530166</v>
       </c>
       <c r="G13">
-        <v>1.752437501797715</v>
+        <v>1.597782730977968</v>
       </c>
       <c r="H13">
-        <v>0.9576283530059868</v>
+        <v>1.365138871155722</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.982954550583031</v>
+        <v>2.254415344093673</v>
       </c>
       <c r="L13">
-        <v>0.05236363287202295</v>
+        <v>0.1036428256517112</v>
       </c>
       <c r="M13">
-        <v>1.363787327056997</v>
+        <v>0.6594275881591045</v>
       </c>
       <c r="N13">
-        <v>0.5479072671950203</v>
+        <v>1.566765895307181</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3784858682879246</v>
+        <v>0.3809113229540344</v>
       </c>
       <c r="D14">
-        <v>0.02484691359542879</v>
+        <v>0.06880582085830333</v>
       </c>
       <c r="E14">
-        <v>0.1002757520451922</v>
+        <v>0.136923363993855</v>
       </c>
       <c r="F14">
-        <v>1.758535835601762</v>
+        <v>1.678523683665958</v>
       </c>
       <c r="G14">
-        <v>1.725244385806832</v>
+        <v>1.593950881764755</v>
       </c>
       <c r="H14">
-        <v>0.9466371620975451</v>
+        <v>1.364467771333864</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.871519895006315</v>
+        <v>2.225758457173242</v>
       </c>
       <c r="L14">
-        <v>0.05197775149429518</v>
+        <v>0.1036672581885902</v>
       </c>
       <c r="M14">
-        <v>1.338744521575649</v>
+        <v>0.6533895491075441</v>
       </c>
       <c r="N14">
-        <v>0.557456609910826</v>
+        <v>1.570514753870237</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3749117979204186</v>
+        <v>0.3802927912202279</v>
       </c>
       <c r="D15">
-        <v>0.02500976651039544</v>
+        <v>0.06886118222277204</v>
       </c>
       <c r="E15">
-        <v>0.0994964875979143</v>
+        <v>0.1368314905163146</v>
       </c>
       <c r="F15">
-        <v>1.741924630024783</v>
+        <v>1.676113865790654</v>
       </c>
       <c r="G15">
-        <v>1.708711680125305</v>
+        <v>1.591625484040975</v>
       </c>
       <c r="H15">
-        <v>0.9399672272641055</v>
+        <v>1.364071394424002</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.80342506560379</v>
+        <v>2.208217839997928</v>
       </c>
       <c r="L15">
-        <v>0.0517439657185399</v>
+        <v>0.1036830492677048</v>
       </c>
       <c r="M15">
-        <v>1.323448026075894</v>
+        <v>0.6496962566444893</v>
       </c>
       <c r="N15">
-        <v>0.5633453763518652</v>
+        <v>1.572823678941383</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3546760884660785</v>
+        <v>0.3768046678952715</v>
       </c>
       <c r="D16">
-        <v>0.02595380721994367</v>
+        <v>0.0691826371885611</v>
       </c>
       <c r="E16">
-        <v>0.09510119388195548</v>
+        <v>0.1363240631665441</v>
       </c>
       <c r="F16">
-        <v>1.648416759798721</v>
+        <v>1.662630916468288</v>
       </c>
       <c r="G16">
-        <v>1.615782376073554</v>
+        <v>1.578631699673053</v>
       </c>
       <c r="H16">
-        <v>0.9026626538184814</v>
+        <v>1.362024825025713</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>5.415544487254465</v>
+        <v>2.107892103837855</v>
       </c>
       <c r="L16">
-        <v>0.05044230523256488</v>
+        <v>0.1037861897008803</v>
       </c>
       <c r="M16">
-        <v>1.236413205704494</v>
+        <v>0.6286108754471513</v>
       </c>
       <c r="N16">
-        <v>0.5976809617975194</v>
+        <v>1.586248781770246</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3424695973718599</v>
+        <v>0.3747151404467104</v>
       </c>
       <c r="D17">
-        <v>0.02654221456359807</v>
+        <v>0.06938358969195946</v>
       </c>
       <c r="E17">
-        <v>0.09246444890984051</v>
+        <v>0.1360297737363751</v>
       </c>
       <c r="F17">
-        <v>1.592473510734607</v>
+        <v>1.65465043300469</v>
       </c>
       <c r="G17">
-        <v>1.56030162877309</v>
+        <v>1.570955946199831</v>
       </c>
       <c r="H17">
-        <v>0.8805553724589856</v>
+        <v>1.360969718923599</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.179535626404174</v>
+        <v>2.046517288358359</v>
       </c>
       <c r="L17">
-        <v>0.04967624716097063</v>
+        <v>0.1038607452686797</v>
       </c>
       <c r="M17">
-        <v>1.183539664148086</v>
+        <v>0.6157464902479859</v>
       </c>
       <c r="N17">
-        <v>0.6192537107443394</v>
+        <v>1.594657211360973</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3355204521339203</v>
+        <v>0.3735317806277862</v>
       </c>
       <c r="D18">
-        <v>0.02688392158150243</v>
+        <v>0.0695005510486908</v>
       </c>
       <c r="E18">
-        <v>0.09096857374265355</v>
+        <v>0.1358667505016875</v>
       </c>
       <c r="F18">
-        <v>1.560787333770406</v>
+        <v>1.650166891258976</v>
       </c>
       <c r="G18">
-        <v>1.528918240578236</v>
+        <v>1.5666493185077</v>
       </c>
       <c r="H18">
-        <v>0.8681099625509034</v>
+        <v>1.360436380995253</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>5.044447538307395</v>
+        <v>2.011279265647886</v>
       </c>
       <c r="L18">
-        <v>0.04924699051333903</v>
+        <v>0.1039077723295243</v>
       </c>
       <c r="M18">
-        <v>1.153305189081109</v>
+        <v>0.6083732511212503</v>
       </c>
       <c r="N18">
-        <v>0.631842365759419</v>
+        <v>1.599556864975957</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3331794926623957</v>
+        <v>0.3731342883041577</v>
       </c>
       <c r="D19">
-        <v>0.02700016737678546</v>
+        <v>0.06954038902175519</v>
       </c>
       <c r="E19">
-        <v>0.0904655436232602</v>
+        <v>0.1358126257681462</v>
       </c>
       <c r="F19">
-        <v>1.55014040293814</v>
+        <v>1.648667127628926</v>
       </c>
       <c r="G19">
-        <v>1.5183798932716</v>
+        <v>1.565209730703828</v>
       </c>
       <c r="H19">
-        <v>0.8639411174468989</v>
+        <v>1.360268420189016</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.998816918511693</v>
+        <v>1.999359124601824</v>
       </c>
       <c r="L19">
-        <v>0.04910355042335368</v>
+        <v>0.103924406594178</v>
       </c>
       <c r="M19">
-        <v>1.143097443634844</v>
+        <v>0.6058812663790718</v>
       </c>
       <c r="N19">
-        <v>0.6361350932574865</v>
+        <v>1.601226676955928</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3437614785650283</v>
+        <v>0.3749356612070471</v>
       </c>
       <c r="D20">
-        <v>0.02647923617710113</v>
+        <v>0.06936205526980643</v>
       </c>
       <c r="E20">
-        <v>0.09274296510771052</v>
+        <v>0.1360604550139257</v>
       </c>
       <c r="F20">
-        <v>1.598377274713556</v>
+        <v>1.655488928103409</v>
       </c>
       <c r="G20">
-        <v>1.566152292795465</v>
+        <v>1.571761830925198</v>
       </c>
       <c r="H20">
-        <v>0.8828804297899353</v>
+        <v>1.361074424027663</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>5.204589845499186</v>
+        <v>2.053044207201367</v>
       </c>
       <c r="L20">
-        <v>0.04975660712901586</v>
+        <v>0.103852379710407</v>
       </c>
       <c r="M20">
-        <v>1.189149520452588</v>
+        <v>0.6171132333773954</v>
       </c>
       <c r="N20">
-        <v>0.6169384237887057</v>
+        <v>1.593755561948182</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3802042544697599</v>
+        <v>0.3812089244239019</v>
       </c>
       <c r="D21">
-        <v>0.0247690176092199</v>
+        <v>0.06877934788074747</v>
       </c>
       <c r="E21">
-        <v>0.1006507210352616</v>
+        <v>0.1369677571499111</v>
       </c>
       <c r="F21">
-        <v>1.766532349551312</v>
+        <v>1.679685046381692</v>
       </c>
       <c r="G21">
-        <v>1.733205640381669</v>
+        <v>1.595071860329057</v>
       </c>
       <c r="H21">
-        <v>0.9498524218580258</v>
+        <v>1.364661827359328</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.904216823076638</v>
+        <v>2.234173063456922</v>
       </c>
       <c r="L21">
-        <v>0.05209055349038039</v>
+        <v>0.1036599097300943</v>
       </c>
       <c r="M21">
-        <v>1.346091164763905</v>
+        <v>0.6551619878104304</v>
       </c>
       <c r="N21">
-        <v>0.5546434610157416</v>
+        <v>1.569410988474417</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4047604051244775</v>
+        <v>0.3854737065861684</v>
       </c>
       <c r="D22">
-        <v>0.0236834840817739</v>
+        <v>0.06841078157916414</v>
       </c>
       <c r="E22">
-        <v>0.1060298541154658</v>
+        <v>0.1376164110985165</v>
       </c>
       <c r="F22">
-        <v>1.881493089907465</v>
+        <v>1.696453863022882</v>
       </c>
       <c r="G22">
-        <v>1.84783503557361</v>
+        <v>1.611277564165704</v>
       </c>
       <c r="H22">
-        <v>0.9963759732917481</v>
+        <v>1.367663633301333</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>6.368564908631527</v>
+        <v>2.35311316092691</v>
       </c>
       <c r="L22">
-        <v>0.05372972200298065</v>
+        <v>0.1035710602646276</v>
       </c>
       <c r="M22">
-        <v>1.450545482947504</v>
+        <v>0.6802609045113428</v>
       </c>
       <c r="N22">
-        <v>0.5156810720789373</v>
+        <v>1.554065993655852</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3915815612530764</v>
+        <v>0.3831824156236792</v>
       </c>
       <c r="D23">
-        <v>0.02425974343453063</v>
+        <v>0.06860637043138773</v>
       </c>
       <c r="E23">
-        <v>0.1031382362935886</v>
+        <v>0.1372651138596055</v>
       </c>
       <c r="F23">
-        <v>1.81963754106674</v>
+        <v>1.687416341349419</v>
       </c>
       <c r="G23">
-        <v>1.786117577489762</v>
+        <v>1.602539055627062</v>
       </c>
       <c r="H23">
-        <v>0.9712755188914741</v>
+        <v>1.366001256923568</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>6.120019527091188</v>
+        <v>2.289581192222329</v>
       </c>
       <c r="L23">
-        <v>0.05284380083628548</v>
+        <v>0.1036150991569578</v>
       </c>
       <c r="M23">
-        <v>1.394607948206612</v>
+        <v>0.6668439149486858</v>
       </c>
       <c r="N23">
-        <v>0.5363084275194367</v>
+        <v>1.562204080926678</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3431772066929</v>
+        <v>0.3748359079033605</v>
       </c>
       <c r="D24">
-        <v>0.02650769807330811</v>
+        <v>0.06937178652356835</v>
       </c>
       <c r="E24">
-        <v>0.09261698584529299</v>
+        <v>0.1360465647981179</v>
       </c>
       <c r="F24">
-        <v>1.595706706676708</v>
+        <v>1.655109518886491</v>
       </c>
       <c r="G24">
-        <v>1.563505616994007</v>
+        <v>1.571397159515101</v>
       </c>
       <c r="H24">
-        <v>0.8818284516559345</v>
+        <v>1.361026858685278</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>5.193260988158215</v>
+        <v>2.050093240243655</v>
       </c>
       <c r="L24">
-        <v>0.0497202417602125</v>
+        <v>0.1038561488092213</v>
       </c>
       <c r="M24">
-        <v>1.1866127992771</v>
+        <v>0.6164952582064416</v>
       </c>
       <c r="N24">
-        <v>0.6179845865921534</v>
+        <v>1.594162993522605</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.2936607915625302</v>
+        <v>0.3665392256154263</v>
       </c>
       <c r="D25">
-        <v>0.02905637431459063</v>
+        <v>0.07025013783667866</v>
       </c>
       <c r="E25">
-        <v>0.08204777733358171</v>
+        <v>0.1349708434155303</v>
       </c>
       <c r="F25">
-        <v>1.3726143395523</v>
+        <v>1.624334151200287</v>
       </c>
       <c r="G25">
-        <v>1.343214587507447</v>
+        <v>1.541940298708283</v>
       </c>
       <c r="H25">
-        <v>0.7955140684495916</v>
+        <v>1.358470936605045</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>4.218191185950388</v>
+        <v>1.794180404928113</v>
       </c>
       <c r="L25">
-        <v>0.04677950553920951</v>
+        <v>0.1042745999083223</v>
       </c>
       <c r="M25">
-        <v>0.9688825039524005</v>
+        <v>0.5631803952830836</v>
       </c>
       <c r="N25">
-        <v>0.7129248523437193</v>
+        <v>1.631057017013766</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_74/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_74/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.3610346189587261</v>
+        <v>0.2590492922003591</v>
       </c>
       <c r="D2">
-        <v>0.07094241660363743</v>
+        <v>0.03102715733469452</v>
       </c>
       <c r="E2">
-        <v>0.1343833452072793</v>
+        <v>0.07481193847641165</v>
       </c>
       <c r="F2">
-        <v>1.605138123829505</v>
+        <v>1.221005025176041</v>
       </c>
       <c r="G2">
-        <v>1.523761136644993</v>
+        <v>1.194576630786287</v>
       </c>
       <c r="H2">
-        <v>1.358990396546005</v>
+        <v>0.7390905294292764</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.607784583014507</v>
+        <v>3.515525513807916</v>
       </c>
       <c r="L2">
-        <v>0.1047187801413045</v>
+        <v>0.04492394941139111</v>
       </c>
       <c r="M2">
-        <v>0.5247690533370317</v>
+        <v>0.8128143635515812</v>
       </c>
       <c r="N2">
-        <v>1.660301691173793</v>
+        <v>0.7880688190568872</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3576795385991147</v>
+        <v>0.2365400448315285</v>
       </c>
       <c r="D3">
-        <v>0.07144010520130806</v>
+        <v>0.03241676839883212</v>
       </c>
       <c r="E3">
-        <v>0.1341124737362378</v>
+        <v>0.07019478267057266</v>
       </c>
       <c r="F3">
-        <v>1.594270704478532</v>
+        <v>1.124752434372695</v>
       </c>
       <c r="G3">
-        <v>1.513607927890476</v>
+        <v>1.1007860505119</v>
       </c>
       <c r="H3">
-        <v>1.360833193443241</v>
+        <v>0.7045980235558744</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.482711372977462</v>
+        <v>3.046306305970404</v>
       </c>
       <c r="L3">
-        <v>0.1051046124842223</v>
+        <v>0.04383402085339938</v>
       </c>
       <c r="M3">
-        <v>0.4992592473328585</v>
+        <v>0.7090640002163653</v>
       </c>
       <c r="N3">
-        <v>1.681417150863711</v>
+        <v>0.8419850099700303</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3558043240709736</v>
+        <v>0.2231260975576959</v>
       </c>
       <c r="D4">
-        <v>0.07175979419485756</v>
+        <v>0.0332953571148753</v>
       </c>
       <c r="E4">
-        <v>0.1340088598334006</v>
+        <v>0.06748526287919177</v>
       </c>
       <c r="F4">
-        <v>1.588648815512911</v>
+        <v>1.068444013408993</v>
       </c>
       <c r="G4">
-        <v>1.50843570423875</v>
+        <v>1.046175764847035</v>
       </c>
       <c r="H4">
-        <v>1.362697807530949</v>
+        <v>0.6850608017767712</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.406528086871333</v>
+        <v>2.760903491683933</v>
       </c>
       <c r="L4">
-        <v>0.1053833293884558</v>
+        <v>0.04323991935333638</v>
       </c>
       <c r="M4">
-        <v>0.4838525054563192</v>
+        <v>0.6461716575605863</v>
       </c>
       <c r="N4">
-        <v>1.695020919172014</v>
+        <v>0.8764825514462986</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3550866115751461</v>
+        <v>0.2177538867919822</v>
       </c>
       <c r="D5">
-        <v>0.07189362167367186</v>
+        <v>0.03365960116285649</v>
       </c>
       <c r="E5">
-        <v>0.1339823985310531</v>
+        <v>0.06641047872160399</v>
       </c>
       <c r="F5">
-        <v>1.586621357945532</v>
+        <v>1.046143395658717</v>
       </c>
       <c r="G5">
-        <v>1.506594102663144</v>
+        <v>1.024609284294414</v>
       </c>
       <c r="H5">
-        <v>1.363641734103169</v>
+        <v>0.6774837251078623</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.375636826409362</v>
+        <v>2.64517811596923</v>
       </c>
       <c r="L5">
-        <v>0.1055074226826029</v>
+        <v>0.04301567521515537</v>
       </c>
       <c r="M5">
-        <v>0.4776385979213629</v>
+        <v>0.6207214623984143</v>
       </c>
       <c r="N5">
-        <v>1.700725075947268</v>
+        <v>0.8908793451176535</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3549702409996769</v>
+        <v>0.2168672882090732</v>
       </c>
       <c r="D6">
-        <v>0.07191605827042657</v>
+        <v>0.0337204544210028</v>
       </c>
       <c r="E6">
-        <v>0.1339789565204015</v>
+        <v>0.06623372464660449</v>
       </c>
       <c r="F6">
-        <v>1.586300594700873</v>
+        <v>1.042477810902483</v>
       </c>
       <c r="G6">
-        <v>1.506304353060386</v>
+        <v>1.021068015106835</v>
       </c>
       <c r="H6">
-        <v>1.36380958262572</v>
+        <v>0.6762479927070331</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.370516664082402</v>
+        <v>2.625994158300557</v>
       </c>
       <c r="L6">
-        <v>0.1055286632793049</v>
+        <v>0.04297948935343499</v>
       </c>
       <c r="M6">
-        <v>0.4766106768344116</v>
+        <v>0.6165055898119718</v>
       </c>
       <c r="N6">
-        <v>1.70168193792539</v>
+        <v>0.8932900631158072</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3557944566910862</v>
+        <v>0.2230532755543777</v>
       </c>
       <c r="D7">
-        <v>0.07176158465435023</v>
+        <v>0.03330024448595381</v>
       </c>
       <c r="E7">
-        <v>0.1340084391524456</v>
+        <v>0.06747065182036138</v>
       </c>
       <c r="F7">
-        <v>1.588620406527255</v>
+        <v>1.068140717355163</v>
       </c>
       <c r="G7">
-        <v>1.508409791434971</v>
+        <v>1.045882205045302</v>
       </c>
       <c r="H7">
-        <v>1.362709792683688</v>
+        <v>0.6849570936932423</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.406110852637426</v>
+        <v>2.759340563326901</v>
       </c>
       <c r="L7">
-        <v>0.1053849603846793</v>
+        <v>0.04323682412750784</v>
       </c>
       <c r="M7">
-        <v>0.4837684415133552</v>
+        <v>0.6458277344382779</v>
       </c>
       <c r="N7">
-        <v>1.69509719768723</v>
+        <v>0.8766753545189143</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.3598394129259361</v>
+        <v>0.2511985326227091</v>
       </c>
       <c r="D8">
-        <v>0.07111109457699882</v>
+        <v>0.0315009241948907</v>
       </c>
       <c r="E8">
-        <v>0.1342769314567462</v>
+        <v>0.07319255138321523</v>
       </c>
       <c r="F8">
-        <v>1.601172516338607</v>
+        <v>1.187202668558001</v>
       </c>
       <c r="G8">
-        <v>1.520039365402965</v>
+        <v>1.161581502690538</v>
       </c>
       <c r="H8">
-        <v>1.359473465177757</v>
+        <v>0.7268392227670688</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.564532304567024</v>
+        <v>3.353115596360567</v>
       </c>
       <c r="L8">
-        <v>0.1048431360144022</v>
+        <v>0.04453190631458881</v>
       </c>
       <c r="M8">
-        <v>0.5159200469717362</v>
+        <v>0.7768573434700201</v>
       </c>
       <c r="N8">
-        <v>1.667449650625279</v>
+        <v>0.8063628947907997</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.369239914524286</v>
+        <v>0.310024181603211</v>
       </c>
       <c r="D9">
-        <v>0.06994720157234369</v>
+        <v>0.02818248728394579</v>
       </c>
       <c r="E9">
-        <v>0.1353013821946902</v>
+        <v>0.08551543701354447</v>
       </c>
       <c r="F9">
-        <v>1.634160285214293</v>
+        <v>1.445597575187051</v>
       </c>
       <c r="G9">
-        <v>1.55131465235857</v>
+        <v>1.415095903383417</v>
       </c>
       <c r="H9">
-        <v>1.358957890448437</v>
+        <v>0.8233811999686793</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.880066822838785</v>
+        <v>4.543907328796536</v>
       </c>
       <c r="L9">
-        <v>0.1041124944783505</v>
+        <v>0.04771832371501006</v>
       </c>
       <c r="M9">
-        <v>0.5810077980499173</v>
+        <v>1.041475423045341</v>
       </c>
       <c r="N9">
-        <v>1.618305956673174</v>
+        <v>0.6800901450029952</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3770456026659019</v>
+        <v>0.3560789733257366</v>
       </c>
       <c r="D10">
-        <v>0.06915989389795563</v>
+        <v>0.02588711858677328</v>
       </c>
       <c r="E10">
-        <v>0.1363584900059536</v>
+        <v>0.09540495674390215</v>
       </c>
       <c r="F10">
-        <v>1.663556012369725</v>
+        <v>1.654869016051862</v>
       </c>
       <c r="G10">
-        <v>1.579522250880046</v>
+        <v>1.622187036350567</v>
       </c>
       <c r="H10">
-        <v>1.362155191948972</v>
+        <v>0.90522297060798</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>2.114903952458235</v>
+        <v>5.442567896133596</v>
       </c>
       <c r="L10">
-        <v>0.1037782441167252</v>
+        <v>0.05053129781202159</v>
       </c>
       <c r="M10">
-        <v>0.6300823170338674</v>
+        <v>1.242471418366222</v>
       </c>
       <c r="N10">
-        <v>1.585297910200564</v>
+        <v>0.5952442906289788</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3807928222815065</v>
+        <v>0.3778014108520722</v>
       </c>
       <c r="D11">
-        <v>0.06881639138998885</v>
+        <v>0.02487801320137351</v>
       </c>
       <c r="E11">
-        <v>0.1369057211795806</v>
+        <v>0.1001264514497073</v>
       </c>
       <c r="F11">
-        <v>1.678061586357501</v>
+        <v>1.755352509659161</v>
       </c>
       <c r="G11">
-        <v>1.593504906866968</v>
+        <v>1.722075552210299</v>
       </c>
       <c r="H11">
-        <v>1.364391100772281</v>
+        <v>0.9453579936801191</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.222403409649814</v>
+        <v>5.858488583671658</v>
       </c>
       <c r="L11">
-        <v>0.1036702289689337</v>
+        <v>0.05193289282377478</v>
       </c>
       <c r="M11">
-        <v>0.6526829712687174</v>
+        <v>1.335816845861814</v>
       </c>
       <c r="N11">
-        <v>1.570955541370003</v>
+        <v>0.5585803921139032</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.382240090471953</v>
+        <v>0.3861526122147723</v>
       </c>
       <c r="D12">
-        <v>0.06868841904548972</v>
+        <v>0.02450136543111725</v>
       </c>
       <c r="E12">
-        <v>0.137122497366132</v>
+        <v>0.1019502148538471</v>
       </c>
       <c r="F12">
-        <v>1.683718350014374</v>
+        <v>1.794262526807572</v>
       </c>
       <c r="G12">
-        <v>1.598966381217139</v>
+        <v>1.760826113739995</v>
       </c>
       <c r="H12">
-        <v>1.365350518185693</v>
+        <v>0.9610239553416022</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.26320752800558</v>
+        <v>6.017190300665959</v>
       </c>
       <c r="L12">
-        <v>0.1036356632322821</v>
+        <v>0.05248300014883966</v>
       </c>
       <c r="M12">
-        <v>0.6612811236107632</v>
+        <v>1.371483788090558</v>
       </c>
       <c r="N12">
-        <v>1.565621413876443</v>
+        <v>0.5449950459260791</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.3819271370828972</v>
+        <v>0.384348209041292</v>
       </c>
       <c r="D13">
-        <v>0.06871588660055039</v>
+        <v>0.02458223184453345</v>
       </c>
       <c r="E13">
-        <v>0.1370753857458666</v>
+        <v>0.1015557758057604</v>
       </c>
       <c r="F13">
-        <v>1.68249276530166</v>
+        <v>1.785842653254463</v>
       </c>
       <c r="G13">
-        <v>1.597782730977968</v>
+        <v>1.752437501797687</v>
       </c>
       <c r="H13">
-        <v>1.365138871155722</v>
+        <v>0.9576283530060152</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.254415344093673</v>
+        <v>5.982954550583031</v>
       </c>
       <c r="L13">
-        <v>0.1036428256517112</v>
+        <v>0.05236363287199808</v>
       </c>
       <c r="M13">
-        <v>0.6594275881591045</v>
+        <v>1.363787327057011</v>
       </c>
       <c r="N13">
-        <v>1.566765895307181</v>
+        <v>0.5479072671949554</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.3809113229540344</v>
+        <v>0.3784858682877257</v>
       </c>
       <c r="D14">
-        <v>0.06880582085830333</v>
+        <v>0.02484691359541813</v>
       </c>
       <c r="E14">
-        <v>0.136923363993855</v>
+        <v>0.1002757520451851</v>
       </c>
       <c r="F14">
-        <v>1.678523683665958</v>
+        <v>1.758535835601776</v>
       </c>
       <c r="G14">
-        <v>1.593950881764755</v>
+        <v>1.72524438580686</v>
       </c>
       <c r="H14">
-        <v>1.364467771333864</v>
+        <v>0.9466371620975451</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.225758457173242</v>
+        <v>5.871519895006259</v>
       </c>
       <c r="L14">
-        <v>0.1036672581885902</v>
+        <v>0.05197775149419925</v>
       </c>
       <c r="M14">
-        <v>0.6533895491075441</v>
+        <v>1.338744521575634</v>
       </c>
       <c r="N14">
-        <v>1.570514753870237</v>
+        <v>0.5574566099108393</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.3802927912202279</v>
+        <v>0.3749117979205323</v>
       </c>
       <c r="D15">
-        <v>0.06886118222277204</v>
+        <v>0.02500976651053755</v>
       </c>
       <c r="E15">
-        <v>0.1368314905163146</v>
+        <v>0.09949648759794627</v>
       </c>
       <c r="F15">
-        <v>1.676113865790654</v>
+        <v>1.741924630024783</v>
       </c>
       <c r="G15">
-        <v>1.591625484040975</v>
+        <v>1.708711680125361</v>
       </c>
       <c r="H15">
-        <v>1.364071394424002</v>
+        <v>0.9399672272642192</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>2.208217839997928</v>
+        <v>5.80342506560379</v>
       </c>
       <c r="L15">
-        <v>0.1036830492677048</v>
+        <v>0.05174396571855411</v>
       </c>
       <c r="M15">
-        <v>0.6496962566444893</v>
+        <v>1.323448026075909</v>
       </c>
       <c r="N15">
-        <v>1.572823678941383</v>
+        <v>0.5633453763518776</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3768046678952715</v>
+        <v>0.3546760884663911</v>
       </c>
       <c r="D16">
-        <v>0.0691826371885611</v>
+        <v>0.02595380721985308</v>
       </c>
       <c r="E16">
-        <v>0.1363240631665441</v>
+        <v>0.09510119388195548</v>
       </c>
       <c r="F16">
-        <v>1.662630916468288</v>
+        <v>1.648416759798735</v>
       </c>
       <c r="G16">
-        <v>1.578631699673053</v>
+        <v>1.615782376073469</v>
       </c>
       <c r="H16">
-        <v>1.362024825025713</v>
+        <v>0.9026626538185667</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>2.107892103837855</v>
+        <v>5.415544487254465</v>
       </c>
       <c r="L16">
-        <v>0.1037861897008803</v>
+        <v>0.0504423052324583</v>
       </c>
       <c r="M16">
-        <v>0.6286108754471513</v>
+        <v>1.236413205704494</v>
       </c>
       <c r="N16">
-        <v>1.586248781770246</v>
+        <v>0.5976809617975105</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3747151404467104</v>
+        <v>0.3424695973720873</v>
       </c>
       <c r="D17">
-        <v>0.06938358969195946</v>
+        <v>0.02654221456362116</v>
       </c>
       <c r="E17">
-        <v>0.1360297737363751</v>
+        <v>0.09246444890985472</v>
       </c>
       <c r="F17">
-        <v>1.65465043300469</v>
+        <v>1.592473510734607</v>
       </c>
       <c r="G17">
-        <v>1.570955946199831</v>
+        <v>1.560301628773175</v>
       </c>
       <c r="H17">
-        <v>1.360969718923599</v>
+        <v>0.8805553724588719</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.046517288358359</v>
+        <v>5.179535626404231</v>
       </c>
       <c r="L17">
-        <v>0.1038607452686797</v>
+        <v>0.04967624716103458</v>
       </c>
       <c r="M17">
-        <v>0.6157464902479859</v>
+        <v>1.183539664148071</v>
       </c>
       <c r="N17">
-        <v>1.594657211360973</v>
+        <v>0.6192537107444052</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.3735317806277862</v>
+        <v>0.3355204521335224</v>
       </c>
       <c r="D18">
-        <v>0.0695005510486908</v>
+        <v>0.0268839215815877</v>
       </c>
       <c r="E18">
-        <v>0.1358667505016875</v>
+        <v>0.09096857374263934</v>
       </c>
       <c r="F18">
-        <v>1.650166891258976</v>
+        <v>1.560787333770406</v>
       </c>
       <c r="G18">
-        <v>1.5666493185077</v>
+        <v>1.528918240578321</v>
       </c>
       <c r="H18">
-        <v>1.360436380995253</v>
+        <v>0.8681099625509034</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.011279265647886</v>
+        <v>5.044447538307395</v>
       </c>
       <c r="L18">
-        <v>0.1039077723295243</v>
+        <v>0.04924699051338877</v>
       </c>
       <c r="M18">
-        <v>0.6083732511212503</v>
+        <v>1.153305189081109</v>
       </c>
       <c r="N18">
-        <v>1.599556864975957</v>
+        <v>0.6318423657594634</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.3731342883041577</v>
+        <v>0.333179492662623</v>
       </c>
       <c r="D19">
-        <v>0.06954038902175519</v>
+        <v>0.02700016737655631</v>
       </c>
       <c r="E19">
-        <v>0.1358126257681462</v>
+        <v>0.09046554362327797</v>
       </c>
       <c r="F19">
-        <v>1.648667127628926</v>
+        <v>1.550140402938155</v>
       </c>
       <c r="G19">
-        <v>1.565209730703828</v>
+        <v>1.518379893271572</v>
       </c>
       <c r="H19">
-        <v>1.360268420189016</v>
+        <v>0.8639411174468989</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.999359124601824</v>
+        <v>4.998816918511693</v>
       </c>
       <c r="L19">
-        <v>0.103924406594178</v>
+        <v>0.04910355042336789</v>
       </c>
       <c r="M19">
-        <v>0.6058812663790718</v>
+        <v>1.143097443634872</v>
       </c>
       <c r="N19">
-        <v>1.601226676955928</v>
+        <v>0.6361350932575505</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3749356612070471</v>
+        <v>0.3437614785649998</v>
       </c>
       <c r="D20">
-        <v>0.06936205526980643</v>
+        <v>0.02647923617730541</v>
       </c>
       <c r="E20">
-        <v>0.1360604550139257</v>
+        <v>0.09274296510772828</v>
       </c>
       <c r="F20">
-        <v>1.655488928103409</v>
+        <v>1.598377274713542</v>
       </c>
       <c r="G20">
-        <v>1.571761830925198</v>
+        <v>1.566152292795351</v>
       </c>
       <c r="H20">
-        <v>1.361074424027663</v>
+        <v>0.8828804297899637</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.053044207201367</v>
+        <v>5.204589845499072</v>
       </c>
       <c r="L20">
-        <v>0.103852379710407</v>
+        <v>0.04975660712889862</v>
       </c>
       <c r="M20">
-        <v>0.6171132333773954</v>
+        <v>1.189149520452602</v>
       </c>
       <c r="N20">
-        <v>1.593755561948182</v>
+        <v>0.6169384237886497</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.3812089244239019</v>
+        <v>0.3802042544702147</v>
       </c>
       <c r="D21">
-        <v>0.06877934788074747</v>
+        <v>0.02476901760943129</v>
       </c>
       <c r="E21">
-        <v>0.1369677571499111</v>
+        <v>0.1006507210352829</v>
       </c>
       <c r="F21">
-        <v>1.679685046381692</v>
+        <v>1.766532349551298</v>
       </c>
       <c r="G21">
-        <v>1.595071860329057</v>
+        <v>1.733205640381669</v>
       </c>
       <c r="H21">
-        <v>1.364661827359328</v>
+        <v>0.9498524218579973</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.234173063456922</v>
+        <v>5.904216823076467</v>
       </c>
       <c r="L21">
-        <v>0.1036599097300943</v>
+        <v>0.0520905534903946</v>
       </c>
       <c r="M21">
-        <v>0.6551619878104304</v>
+        <v>1.346091164763919</v>
       </c>
       <c r="N21">
-        <v>1.569410988474417</v>
+        <v>0.5546434610158038</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3854737065861684</v>
+        <v>0.4047604051246765</v>
       </c>
       <c r="D22">
-        <v>0.06841078157916414</v>
+        <v>0.02368348408167442</v>
       </c>
       <c r="E22">
-        <v>0.1376164110985165</v>
+        <v>0.106029854115441</v>
       </c>
       <c r="F22">
-        <v>1.696453863022882</v>
+        <v>1.881493089907451</v>
       </c>
       <c r="G22">
-        <v>1.611277564165704</v>
+        <v>1.84783503557361</v>
       </c>
       <c r="H22">
-        <v>1.367663633301333</v>
+        <v>0.9963759732918334</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.35311316092691</v>
+        <v>6.36856490863147</v>
       </c>
       <c r="L22">
-        <v>0.1035710602646276</v>
+        <v>0.05372972200307302</v>
       </c>
       <c r="M22">
-        <v>0.6802609045113428</v>
+        <v>1.450545482947476</v>
       </c>
       <c r="N22">
-        <v>1.554065993655852</v>
+        <v>0.5156810720789657</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.3831824156236792</v>
+        <v>0.3915815612530196</v>
       </c>
       <c r="D23">
-        <v>0.06860637043138773</v>
+        <v>0.02425974343453419</v>
       </c>
       <c r="E23">
-        <v>0.1372651138596055</v>
+        <v>0.1031382362935709</v>
       </c>
       <c r="F23">
-        <v>1.687416341349419</v>
+        <v>1.81963754106674</v>
       </c>
       <c r="G23">
-        <v>1.602539055627062</v>
+        <v>1.786117577489847</v>
       </c>
       <c r="H23">
-        <v>1.366001256923568</v>
+        <v>0.9712755188914741</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.289581192222329</v>
+        <v>6.120019527091188</v>
       </c>
       <c r="L23">
-        <v>0.1036150991569578</v>
+        <v>0.05284380083640272</v>
       </c>
       <c r="M23">
-        <v>0.6668439149486858</v>
+        <v>1.394607948206598</v>
       </c>
       <c r="N23">
-        <v>1.562204080926678</v>
+        <v>0.5363084275193755</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3748359079033605</v>
+        <v>0.3431772066928431</v>
       </c>
       <c r="D24">
-        <v>0.06937178652356835</v>
+        <v>0.02650769807322462</v>
       </c>
       <c r="E24">
-        <v>0.1360465647981179</v>
+        <v>0.09261698584526457</v>
       </c>
       <c r="F24">
-        <v>1.655109518886491</v>
+        <v>1.595706706676708</v>
       </c>
       <c r="G24">
-        <v>1.571397159515101</v>
+        <v>1.563505616994007</v>
       </c>
       <c r="H24">
-        <v>1.361026858685278</v>
+        <v>0.8818284516559345</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.050093240243655</v>
+        <v>5.193260988158215</v>
       </c>
       <c r="L24">
-        <v>0.1038561488092213</v>
+        <v>0.04972024176022316</v>
       </c>
       <c r="M24">
-        <v>0.6164952582064416</v>
+        <v>1.186612799277114</v>
       </c>
       <c r="N24">
-        <v>1.594162993522605</v>
+        <v>0.6179845865921596</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.3665392256154263</v>
+        <v>0.2936607915623171</v>
       </c>
       <c r="D25">
-        <v>0.07025013783667866</v>
+        <v>0.0290563743147807</v>
       </c>
       <c r="E25">
-        <v>0.1349708434155303</v>
+        <v>0.0820477773335675</v>
       </c>
       <c r="F25">
-        <v>1.624334151200287</v>
+        <v>1.3726143395523</v>
       </c>
       <c r="G25">
-        <v>1.541940298708283</v>
+        <v>1.343214587507447</v>
       </c>
       <c r="H25">
-        <v>1.358470936605045</v>
+        <v>0.7955140684497053</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.794180404928113</v>
+        <v>4.218191185950502</v>
       </c>
       <c r="L25">
-        <v>0.1042745999083223</v>
+        <v>0.04677950553924504</v>
       </c>
       <c r="M25">
-        <v>0.5631803952830836</v>
+        <v>0.9688825039524005</v>
       </c>
       <c r="N25">
-        <v>1.631057017013766</v>
+        <v>0.7129248523436935</v>
       </c>
       <c r="O25">
         <v>0</v>
